--- a/关联上级.xlsx
+++ b/关联上级.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="522">
   <si>
     <t>入职时间</t>
   </si>
@@ -5038,13 +5038,13 @@
         <v>45242</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
         <v>150</v>
       </c>
       <c r="E104" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F104" t="s">
         <v>520</v>
@@ -5057,6 +5057,9 @@
       </c>
       <c r="I104" t="s">
         <v>520</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -6964,7 +6967,7 @@
         <v>509</v>
       </c>
       <c r="F170" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G170" t="s">
         <v>520</v>
@@ -15437,7 +15440,7 @@
         <v>520</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="s">
         <v>520</v>
@@ -15469,7 +15472,7 @@
         <v>520</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="s">
         <v>520</v>
@@ -15501,7 +15504,7 @@
         <v>520</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="s">
         <v>520</v>
@@ -15893,19 +15896,19 @@
         <v>473</v>
       </c>
       <c r="B475" s="2">
-        <v>45242</v>
+        <v>45237</v>
       </c>
       <c r="C475" t="s">
         <v>15</v>
       </c>
       <c r="D475" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E475" t="s">
         <v>511</v>
       </c>
       <c r="F475" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G475" t="s">
         <v>520</v>
@@ -15914,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J475" t="s">
         <v>32</v>
@@ -15925,19 +15928,19 @@
         <v>474</v>
       </c>
       <c r="B476" s="2">
-        <v>45237</v>
+        <v>45321</v>
       </c>
       <c r="C476" t="s">
         <v>15</v>
       </c>
       <c r="D476" t="s">
-        <v>158</v>
+        <v>417</v>
       </c>
       <c r="E476" t="s">
         <v>511</v>
       </c>
       <c r="F476" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G476" t="s">
         <v>520</v>
@@ -15946,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J476" t="s">
         <v>32</v>
@@ -15957,16 +15960,16 @@
         <v>475</v>
       </c>
       <c r="B477" s="2">
-        <v>45321</v>
+        <v>45365</v>
       </c>
       <c r="C477" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D477" t="s">
-        <v>417</v>
+        <v>495</v>
       </c>
       <c r="E477" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F477" t="s">
         <v>520</v>
@@ -15975,13 +15978,13 @@
         <v>520</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I477" t="s">
         <v>520</v>
       </c>
       <c r="J477" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -15989,16 +15992,16 @@
         <v>476</v>
       </c>
       <c r="B478" s="2">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="C478" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D478" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E478" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F478" t="s">
         <v>520</v>
@@ -16011,52 +16014,52 @@
       </c>
       <c r="I478" t="s">
         <v>520</v>
-      </c>
-      <c r="J478" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="479" spans="1:10">
       <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" s="2">
-        <v>45369</v>
-      </c>
       <c r="C479" t="s">
-        <v>19</v>
-      </c>
-      <c r="D479" t="s">
-        <v>496</v>
+        <v>32</v>
       </c>
       <c r="E479" t="s">
-        <v>510</v>
-      </c>
-      <c r="F479" t="s">
-        <v>520</v>
-      </c>
-      <c r="G479" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H479">
-        <v>1</v>
-      </c>
-      <c r="I479" t="s">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:10">
       <c r="A480" s="1">
         <v>478</v>
       </c>
+      <c r="B480" s="2">
+        <v>45370</v>
+      </c>
       <c r="C480" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="D480" t="s">
+        <v>497</v>
       </c>
       <c r="E480" t="s">
-        <v>511</v>
+        <v>510</v>
+      </c>
+      <c r="F480" t="s">
+        <v>520</v>
+      </c>
+      <c r="G480" t="s">
+        <v>520</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I480" t="s">
+        <v>520</v>
+      </c>
+      <c r="J480" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="481" spans="1:10">
@@ -16067,13 +16070,13 @@
         <v>45370</v>
       </c>
       <c r="C481" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D481" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E481" t="s">
-        <v>510</v>
+        <v>39</v>
       </c>
       <c r="F481" t="s">
         <v>520</v>
@@ -16088,7 +16091,7 @@
         <v>520</v>
       </c>
       <c r="J481" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -16096,16 +16099,16 @@
         <v>480</v>
       </c>
       <c r="B482" s="2">
-        <v>45370</v>
+        <v>45361</v>
       </c>
       <c r="C482" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D482" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E482" t="s">
-        <v>39</v>
+        <v>509</v>
       </c>
       <c r="F482" t="s">
         <v>520</v>
@@ -16114,13 +16117,10 @@
         <v>520</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="s">
         <v>520</v>
-      </c>
-      <c r="J482" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="483" spans="1:10">
@@ -16128,13 +16128,13 @@
         <v>481</v>
       </c>
       <c r="B483" s="2">
-        <v>45361</v>
+        <v>45370</v>
       </c>
       <c r="C483" t="s">
         <v>12</v>
       </c>
       <c r="D483" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E483" t="s">
         <v>509</v>
@@ -16146,7 +16146,7 @@
         <v>520</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483" t="s">
         <v>520</v>
@@ -16157,13 +16157,13 @@
         <v>482</v>
       </c>
       <c r="B484" s="2">
-        <v>45370</v>
+        <v>45222</v>
       </c>
       <c r="C484" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D484" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E484" t="s">
         <v>509</v>
@@ -16175,7 +16175,7 @@
         <v>520</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="s">
         <v>520</v>
@@ -16186,13 +16186,13 @@
         <v>483</v>
       </c>
       <c r="B485" s="2">
-        <v>45222</v>
+        <v>45369</v>
       </c>
       <c r="C485" t="s">
         <v>25</v>
       </c>
       <c r="D485" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E485" t="s">
         <v>509</v>
@@ -16204,7 +16204,7 @@
         <v>520</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I485" t="s">
         <v>520</v>
@@ -16215,13 +16215,13 @@
         <v>484</v>
       </c>
       <c r="B486" s="2">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="C486" t="s">
         <v>25</v>
       </c>
       <c r="D486" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E486" t="s">
         <v>509</v>
@@ -16244,16 +16244,16 @@
         <v>485</v>
       </c>
       <c r="B487" s="2">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="C487" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D487" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E487" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F487" t="s">
         <v>520</v>
@@ -16266,6 +16266,9 @@
       </c>
       <c r="I487" t="s">
         <v>520</v>
+      </c>
+      <c r="J487" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="488" spans="1:10">
@@ -16273,16 +16276,16 @@
         <v>486</v>
       </c>
       <c r="B488" s="2">
-        <v>45372</v>
+        <v>45370</v>
       </c>
       <c r="C488" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D488" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E488" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F488" t="s">
         <v>520</v>
@@ -16295,9 +16298,6 @@
       </c>
       <c r="I488" t="s">
         <v>520</v>
-      </c>
-      <c r="J488" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="489" spans="1:10">
@@ -16305,16 +16305,16 @@
         <v>487</v>
       </c>
       <c r="B489" s="2">
-        <v>45370</v>
+        <v>45375</v>
       </c>
       <c r="C489" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D489" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E489" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F489" t="s">
         <v>520</v>
@@ -16327,6 +16327,9 @@
       </c>
       <c r="I489" t="s">
         <v>520</v>
+      </c>
+      <c r="J489" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="490" spans="1:10">
@@ -16337,13 +16340,13 @@
         <v>45375</v>
       </c>
       <c r="C490" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D490" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E490" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F490" t="s">
         <v>520</v>
@@ -16358,7 +16361,7 @@
         <v>520</v>
       </c>
       <c r="J490" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="491" spans="1:10">
@@ -16366,13 +16369,13 @@
         <v>489</v>
       </c>
       <c r="B491" s="2">
-        <v>45375</v>
+        <v>45370</v>
       </c>
       <c r="C491" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D491" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E491" t="s">
         <v>510</v>
@@ -16398,13 +16401,13 @@
         <v>490</v>
       </c>
       <c r="B492" s="2">
-        <v>45370</v>
+        <v>45364</v>
       </c>
       <c r="C492" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D492" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="E492" t="s">
         <v>510</v>
